--- a/data/c_vs_random1_checkers.xlsx
+++ b/data/c_vs_random1_checkers.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Win rate</t>
@@ -446,263 +451,223 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>46.6</v>
+        <v>43.6</v>
       </c>
       <c r="C2" t="n">
+        <v>24.009</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>24.273</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23.841</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>45</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24.131</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23.832</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B7" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23.618</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B8" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24.606</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B9" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23.731</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B10" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>24.335</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>24</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>23.679</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="B11" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>24.689</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B12" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23.974</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B13" t="n">
+        <v>44</v>
+      </c>
+      <c r="C13" t="n">
+        <v>23.775</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B14" t="n">
+        <v>45</v>
+      </c>
+      <c r="C14" t="n">
+        <v>23.76</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B15" t="n">
         <v>46.2</v>
       </c>
-      <c r="C5" t="n">
-        <v>24.333</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>24.064</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>47</v>
-      </c>
-      <c r="C7" t="n">
-        <v>24.175</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>24.186</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>45</v>
-      </c>
-      <c r="C9" t="n">
-        <v>24.231</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="C15" t="n">
+        <v>23.929</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B16" t="n">
+        <v>46</v>
+      </c>
+      <c r="C16" t="n">
+        <v>24.319</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B17" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24.313</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B18" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>24.679</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B19" t="n">
         <v>44.7</v>
       </c>
-      <c r="C10" t="n">
-        <v>23.796</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>48</v>
-      </c>
-      <c r="C11" t="n">
-        <v>23.903</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>23.654</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>24.109</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>24.334</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>24.024</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>24.244</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="C17" t="n">
-        <v>24.236</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>24.492</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>48.5</v>
-      </c>
       <c r="C19" t="n">
-        <v>24.513</v>
+        <v>24.071</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="B20" t="n">
-        <v>42.1</v>
+        <v>45.4</v>
       </c>
       <c r="C20" t="n">
-        <v>23.747</v>
+        <v>24.284</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>47.3</v>
+        <v>49.5</v>
       </c>
       <c r="C21" t="n">
-        <v>23.929</v>
+        <v>24.909</v>
       </c>
     </row>
   </sheetData>
